--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn2-Cntn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
+    <t>Neutrophils</t>
   </si>
   <si>
     <t>Cntn2</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H2">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I2">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J2">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,36 +558,36 @@
         <v>0.143837</v>
       </c>
       <c r="O2">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.001129408124</v>
+        <v>0.001985605857444445</v>
       </c>
       <c r="R2">
-        <v>0.010164673116</v>
+        <v>0.017870452717</v>
       </c>
       <c r="S2">
-        <v>0.2014952165192552</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="T2">
-        <v>0.2014952165192553</v>
+        <v>0.6324048906127518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.023556</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H3">
-        <v>0.07066799999999999</v>
+        <v>0.042668</v>
       </c>
       <c r="I3">
-        <v>0.2591153090258426</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J3">
-        <v>0.2591153090258426</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,42 +614,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01371066666666667</v>
+        <v>0.04794566666666666</v>
       </c>
       <c r="N3">
-        <v>0.041132</v>
+        <v>0.143837</v>
       </c>
       <c r="O3">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.2223723975368846</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.000322968464</v>
+        <v>0.0006819152351111111</v>
       </c>
       <c r="R3">
-        <v>0.002906716176</v>
+        <v>0.006137237115999999</v>
       </c>
       <c r="S3">
-        <v>0.05762009250658735</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="T3">
-        <v>0.05762009250658737</v>
+        <v>0.2171863706237465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04141366666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H4">
-        <v>0.124241</v>
+        <v>0.029549</v>
       </c>
       <c r="I4">
-        <v>0.455549118535684</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J4">
-        <v>0.455549118535684</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,332 +682,22 @@
         <v>0.143837</v>
       </c>
       <c r="O4">
-        <v>0.7776276024631154</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.7776276024631155</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.001985605857444445</v>
+        <v>0.0004722488347777778</v>
       </c>
       <c r="R4">
-        <v>0.017870452717</v>
+        <v>0.004250239513</v>
       </c>
       <c r="S4">
-        <v>0.3542475688510895</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="T4">
-        <v>0.3542475688510895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.04141366666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.124241</v>
-      </c>
-      <c r="I5">
-        <v>0.455549118535684</v>
-      </c>
-      <c r="J5">
-        <v>0.455549118535684</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.041132</v>
-      </c>
-      <c r="O5">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P5">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q5">
-        <v>0.0005678089791111111</v>
-      </c>
-      <c r="R5">
-        <v>0.005110280812</v>
-      </c>
-      <c r="S5">
-        <v>0.1013015496845945</v>
-      </c>
-      <c r="T5">
-        <v>0.1013015496845945</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.01422266666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.042668</v>
-      </c>
-      <c r="I6">
-        <v>0.1564489161362236</v>
-      </c>
-      <c r="J6">
-        <v>0.1564489161362236</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.04794566666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.143837</v>
-      </c>
-      <c r="O6">
-        <v>0.7776276024631154</v>
-      </c>
-      <c r="P6">
-        <v>0.7776276024631155</v>
-      </c>
-      <c r="Q6">
-        <v>0.0006819152351111111</v>
-      </c>
-      <c r="R6">
-        <v>0.006137237115999999</v>
-      </c>
-      <c r="S6">
-        <v>0.1216589955629646</v>
-      </c>
-      <c r="T6">
-        <v>0.1216589955629646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.01422266666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.042668</v>
-      </c>
-      <c r="I7">
-        <v>0.1564489161362236</v>
-      </c>
-      <c r="J7">
-        <v>0.1564489161362236</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.041132</v>
-      </c>
-      <c r="O7">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P7">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q7">
-        <v>0.0001950022417777778</v>
-      </c>
-      <c r="R7">
-        <v>0.001755020176</v>
-      </c>
-      <c r="S7">
-        <v>0.03478992057325904</v>
-      </c>
-      <c r="T7">
-        <v>0.03478992057325904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.011717</v>
-      </c>
-      <c r="H8">
-        <v>0.035151</v>
-      </c>
-      <c r="I8">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J8">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.04794566666666666</v>
-      </c>
-      <c r="N8">
-        <v>0.143837</v>
-      </c>
-      <c r="O8">
-        <v>0.7776276024631154</v>
-      </c>
-      <c r="P8">
-        <v>0.7776276024631155</v>
-      </c>
-      <c r="Q8">
-        <v>0.0005617793763333333</v>
-      </c>
-      <c r="R8">
-        <v>0.005056014387</v>
-      </c>
-      <c r="S8">
-        <v>0.1002258215298062</v>
-      </c>
-      <c r="T8">
-        <v>0.1002258215298062</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.011717</v>
-      </c>
-      <c r="H9">
-        <v>0.035151</v>
-      </c>
-      <c r="I9">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J9">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01371066666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.041132</v>
-      </c>
-      <c r="O9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="P9">
-        <v>0.2223723975368846</v>
-      </c>
-      <c r="Q9">
-        <v>0.0001606478813333333</v>
-      </c>
-      <c r="R9">
-        <v>0.001445830932</v>
-      </c>
-      <c r="S9">
-        <v>0.02866083477244372</v>
-      </c>
-      <c r="T9">
-        <v>0.02866083477244372</v>
+        <v>0.1504087387635016</v>
       </c>
     </row>
   </sheetData>
